--- a/files/WMSOK.xlsx
+++ b/files/WMSOK.xlsx
@@ -38,13 +38,18 @@
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
   <si>
     <t>codigo</t>
   </si>
@@ -215,6 +220,15 @@
   </si>
   <si>
     <t>Nintendo</t>
+  </si>
+  <si>
+    <t>EL8C5</t>
+  </si>
+  <si>
+    <t>7503049746395</t>
+  </si>
+  <si>
+    <t>Cafetera Tetera Metalica Electrica de 1000w y 1.8l Plata</t>
   </si>
   <si>
     <t>posicion</t>
@@ -1686,7 +1700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125">
       <selection activeCell="B3" activeCellId="0" sqref="B3"/>
@@ -2367,6 +2381,77 @@
         <v>6.5</v>
       </c>
     </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s"/>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="0" headings="0"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2393,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2445,145 +2530,145 @@
   <sheetData>
     <row customHeight="1" ht="51" r="1" spans="1:47">
       <c r="A1" s="55" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M1" s="57" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="N1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="58" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P1" s="58" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q1" s="58" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="R1" s="58" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="S1" s="58" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="T1" s="58" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="U1" s="59" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="V1" s="59" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="W1" s="59" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="X1" s="59" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Y1" s="59" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Z1" s="60" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AA1" s="60" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AB1" s="60" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AC1" s="60" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AD1" s="60" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AE1" s="60" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AF1" s="60" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AG1" s="61" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AH1" s="61" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AI1" s="61" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AJ1" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="AK1" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL1" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM1" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="AK1" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="AL1" s="61" t="s">
+      <c r="AN1" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="AM1" s="62" t="s">
-        <v>264</v>
-      </c>
-      <c r="AN1" s="62" t="s">
-        <v>265</v>
-      </c>
       <c r="AO1" s="62" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AP1" s="62" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AQ1" s="62" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AR1" s="62" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AS1" s="63" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AT1" s="63" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AU1" s="63" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:47">
@@ -2630,10 +2715,10 @@
       <c r="AI2" s="65" t="n"/>
       <c r="AJ2" s="65" t="n"/>
       <c r="AK2" s="26" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AL2" s="26" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AM2" s="65" t="n"/>
       <c r="AN2" s="65" t="n"/>
@@ -2687,10 +2772,10 @@
       <c r="AI3" s="65" t="n"/>
       <c r="AJ3" s="65" t="n"/>
       <c r="AK3" s="26" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AL3" s="26" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AM3" s="65" t="n"/>
       <c r="AN3" s="65" t="n"/>
@@ -2746,10 +2831,10 @@
       <c r="AI4" s="65" t="n"/>
       <c r="AJ4" s="65" t="n"/>
       <c r="AK4" s="26" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AL4" s="26" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AM4" s="65" t="n"/>
       <c r="AN4" s="65" t="n"/>
@@ -3859,21 +3944,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="27" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -3881,10 +3966,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -3892,10 +3977,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -3903,10 +3988,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -3938,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3948,12 +4033,12 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="37" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="37" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3985,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3999,29 +4084,29 @@
         <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="37" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B3" s="26" t="n">
         <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="37" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B4" s="26" t="n">
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4094,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4151,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4205,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C1" s="81" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4221,7 +4306,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="37" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C3" s="26" t="n">
         <v>54781769398</v>
@@ -4229,7 +4314,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="37" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C4" s="26" t="n">
         <v>54781769406</v>
@@ -4261,7 +4346,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -4271,7 +4356,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4281,7 +4366,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -4291,7 +4376,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4325,12 +4410,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -4365,42 +4450,42 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
         <v>11</v>
@@ -4409,21 +4494,21 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
@@ -4432,21 +4517,21 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
@@ -4455,21 +4540,21 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E5" t="n">
         <v>11</v>
@@ -4478,21 +4563,21 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E6" t="n">
         <v>11</v>
@@ -4501,21 +4586,21 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
         <v>11</v>
@@ -4524,21 +4609,21 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E8" t="n">
         <v>11</v>
@@ -4547,21 +4632,21 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
@@ -4570,21 +4655,21 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E10" t="n">
         <v>11</v>
@@ -4593,21 +4678,21 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
@@ -4616,21 +4701,21 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E12" t="n">
         <v>11</v>
@@ -4639,21 +4724,21 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E13" t="n">
         <v>11</v>
@@ -4662,21 +4747,21 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E14" t="n">
         <v>11</v>
@@ -4685,21 +4770,21 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -4708,21 +4793,21 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
@@ -4731,21 +4816,21 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -4754,21 +4839,21 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E18" t="n">
         <v>11</v>
@@ -4777,21 +4862,21 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E19" t="n">
         <v>11</v>
@@ -4806,16 +4891,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E20" t="n">
         <v>11</v>
@@ -4830,16 +4915,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E21" t="n">
         <v>11</v>
@@ -4854,16 +4939,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="22" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E22" t="n">
         <v>11</v>
@@ -4878,16 +4963,16 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="22" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E23" t="n">
         <v>11</v>
@@ -4902,16 +4987,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="22" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E24" t="n">
         <v>11</v>
@@ -4926,16 +5011,16 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
@@ -4950,16 +5035,16 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E26" t="n">
         <v>11</v>
@@ -4974,16 +5059,16 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
@@ -4998,16 +5083,16 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E28" t="n">
         <v>11</v>
@@ -5022,16 +5107,16 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E29" t="n">
         <v>11</v>
@@ -5046,16 +5131,16 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E30" t="n">
         <v>12</v>
@@ -5070,16 +5155,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E31" t="n">
         <v>12</v>
@@ -5094,16 +5179,16 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="22" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E32" t="n">
         <v>12</v>
@@ -5118,16 +5203,16 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E33" t="n">
         <v>12</v>
@@ -5142,16 +5227,16 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="22" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E34" t="n">
         <v>12</v>
@@ -5166,16 +5251,16 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E35" t="n">
         <v>12</v>
@@ -5190,16 +5275,16 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E36" t="n">
         <v>12</v>
@@ -5214,16 +5299,16 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="22" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E37" t="n">
         <v>12</v>
@@ -5238,16 +5323,16 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E38" t="n">
         <v>12</v>
@@ -5262,16 +5347,16 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E39" t="n">
         <v>12</v>
@@ -5286,16 +5371,16 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E40" t="n">
         <v>12</v>
@@ -5310,16 +5395,16 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E41" t="n">
         <v>12</v>
@@ -5334,16 +5419,16 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E42" t="n">
         <v>12</v>
@@ -5358,16 +5443,16 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="22" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E43" t="n">
         <v>12</v>
@@ -5382,16 +5467,16 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E44" t="n">
         <v>12</v>
@@ -5406,16 +5491,16 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -5430,16 +5515,16 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -5454,16 +5539,16 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -5478,16 +5563,16 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="22" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -5502,16 +5587,16 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -5526,16 +5611,16 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -5550,16 +5635,16 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -5574,16 +5659,16 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="22" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -5598,16 +5683,16 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="22" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -5622,16 +5707,16 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="22" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -5646,16 +5731,16 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -5670,16 +5755,16 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="22" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -5694,16 +5779,16 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="22" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -5718,16 +5803,16 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -5742,16 +5827,16 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="22" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5766,16 +5851,16 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E60" t="n">
         <v>14</v>
@@ -5790,16 +5875,16 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="22" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E61" t="n">
         <v>14</v>
@@ -5814,16 +5899,16 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E62" t="n">
         <v>14</v>
@@ -5838,16 +5923,16 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E63" t="n">
         <v>14</v>
@@ -5862,16 +5947,16 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E64" t="n">
         <v>14</v>
@@ -5886,16 +5971,16 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E65" t="n">
         <v>14</v>
@@ -5910,16 +5995,16 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="22" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E66" t="n">
         <v>14</v>
@@ -5934,16 +6019,16 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E67" t="n">
         <v>14</v>
@@ -5958,16 +6043,16 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E68" t="n">
         <v>14</v>
@@ -5982,16 +6067,16 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E69" t="n">
         <v>14</v>
@@ -6006,16 +6091,16 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E70" t="n">
         <v>14</v>
@@ -6030,16 +6115,16 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E71" t="n">
         <v>14</v>
@@ -6054,16 +6139,16 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E72" t="n">
         <v>14</v>
@@ -6078,16 +6163,16 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E73" t="n">
         <v>14</v>
@@ -6102,16 +6187,16 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E74" t="n">
         <v>14</v>
@@ -6126,16 +6211,16 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="22" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E75" t="n">
         <v>14</v>
@@ -6144,21 +6229,21 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="22" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C76" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E76" t="n">
         <v>11</v>
@@ -6167,21 +6252,21 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="26" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
@@ -6191,21 +6276,21 @@
         <v/>
       </c>
       <c r="G77" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" t="s">
         <v>152</v>
       </c>
-      <c r="B78" t="s">
-        <v>148</v>
-      </c>
-      <c r="C78" t="s">
-        <v>149</v>
-      </c>
       <c r="D78" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -6215,21 +6300,21 @@
         <v/>
       </c>
       <c r="G78" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" t="s">
         <v>153</v>
-      </c>
-      <c r="B79" t="s">
-        <v>148</v>
-      </c>
-      <c r="C79" t="s">
-        <v>149</v>
-      </c>
-      <c r="D79" t="s">
-        <v>150</v>
       </c>
       <c r="E79" t="n">
         <v>1</v>
@@ -6239,21 +6324,21 @@
         <v/>
       </c>
       <c r="G79" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C80" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D80" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
@@ -6263,21 +6348,21 @@
         <v/>
       </c>
       <c r="G80" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="26" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C81" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D81" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
@@ -6287,21 +6372,21 @@
         <v/>
       </c>
       <c r="G81" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D82" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
@@ -6311,21 +6396,21 @@
         <v/>
       </c>
       <c r="G82" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C83" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D83" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
@@ -6335,21 +6420,21 @@
         <v/>
       </c>
       <c r="G83" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B84" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C84" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D84" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
@@ -6359,21 +6444,21 @@
         <v/>
       </c>
       <c r="G84" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D85" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
@@ -6383,21 +6468,21 @@
         <v/>
       </c>
       <c r="G85" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="26" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C86" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D86" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E86" t="n">
         <v>2</v>
@@ -6407,21 +6492,21 @@
         <v/>
       </c>
       <c r="G86" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="26" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C87" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D87" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E87" t="n">
         <v>2</v>
@@ -6431,21 +6516,21 @@
         <v/>
       </c>
       <c r="G87" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="26" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C88" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D88" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
@@ -6455,21 +6540,21 @@
         <v/>
       </c>
       <c r="G88" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="26" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C89" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D89" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -6479,7 +6564,7 @@
         <v/>
       </c>
       <c r="G89" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6509,15 +6594,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -6528,7 +6613,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -6539,7 +6624,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -6550,7 +6635,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -6585,15 +6670,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="82" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B2" t="n">
         <v>1450</v>
@@ -6628,12 +6713,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="83" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B2" t="n">
         <v>10</v>
@@ -6665,12 +6750,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="83" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -6707,29 +6792,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N1" s="28" t="n"/>
       <c r="O1" s="28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -7204,10 +7289,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -7221,23 +7306,23 @@
         <v>150</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N2" s="28" t="n"/>
       <c r="O2" s="28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -7628,15 +7713,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B2" t="n">
         <v>4200</v>
@@ -7647,7 +7732,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B3" t="n">
         <v>900</v>
@@ -7658,7 +7743,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B4" t="n">
         <v>900</v>
@@ -7697,26 +7782,26 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="39" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B1" s="39" t="n"/>
       <c r="C1" s="40" t="n"/>
       <c r="D1" s="39" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B2" s="41" t="n">
         <v>4200</v>
@@ -7729,7 +7814,7 @@
         <v/>
       </c>
       <c r="E2" s="38" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F2" t="n">
         <v>20</v>
@@ -7741,7 +7826,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B3" s="41" t="n">
         <v>900</v>
@@ -7754,7 +7839,7 @@
         <v/>
       </c>
       <c r="E3" s="38" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F3" t="n">
         <v>20</v>
@@ -7766,7 +7851,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B4" s="41" t="n">
         <v>900</v>
@@ -7779,7 +7864,7 @@
         <v/>
       </c>
       <c r="E4" s="38" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F4" t="n">
         <v>20</v>
@@ -7791,14 +7876,14 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C5" s="38" t="n"/>
       <c r="D5" s="38" t="n">
         <v>2300</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F5" t="n">
         <v>20</v>
@@ -7810,14 +7895,14 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C6" s="38" t="n"/>
       <c r="D6" s="38" t="n">
         <v>132000</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -7882,26 +7967,26 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="32" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B3" s="45" t="n">
         <v>1200</v>
@@ -7912,7 +7997,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="32" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B4" s="45" t="n">
         <v>1200</v>
@@ -7923,7 +8008,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="32" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B5" s="45" t="n">
         <v>1200</v>
@@ -7934,7 +8019,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7963,7 +8048,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="32" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B23" s="26" t="n">
         <v>500</v>
@@ -7971,7 +8056,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="32" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B24" s="26" t="n">
         <v>500</v>
@@ -7979,7 +8064,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="32" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B25" s="26" t="n">
         <v>500</v>
@@ -7987,19 +8072,19 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="46" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8052,7 +8137,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="32" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B32" s="26" t="n">
         <v>100</v>
@@ -8068,7 +8153,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="32" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B33" s="26" t="n">
         <v>100</v>
@@ -8084,7 +8169,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="32" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B34" s="26" t="n">
         <v>400</v>
@@ -8128,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8142,7 +8227,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D2" s="47" t="n">
         <v>7503041710073</v>
@@ -8156,7 +8241,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>7503041710097</v>
@@ -8207,135 +8292,135 @@
   <sheetData>
     <row customFormat="1" r="1" s="50" spans="1:23">
       <c r="A1" s="50" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J1" s="50" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L1" s="50" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M1" s="50" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N1" s="50" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O1" s="50" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P1" s="50" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q1" s="50" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="R1" s="50" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="S1" s="50" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="T1" s="50" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="U1" s="50" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="V1" s="50" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="W1" s="50" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K2" s="48" t="n">
         <v>1800</v>
       </c>
       <c r="L2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M2" t="n">
         <v>1149</v>
       </c>
       <c r="N2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="R2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="S2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="U2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="V2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="W2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:23">

--- a/files/WMSOK.xlsx
+++ b/files/WMSOK.xlsx
@@ -43,13 +43,23 @@
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">registroPosiciones!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="298">
   <si>
     <t>codigo</t>
   </si>
@@ -229,6 +239,12 @@
   </si>
   <si>
     <t>Cafetera Tetera Metalica Electrica de 1000w y 1.8l Plata</t>
+  </si>
+  <si>
+    <t>7503044894060</t>
+  </si>
+  <si>
+    <t>Zapatera de Tela 9 Peldaños Gris</t>
   </si>
   <si>
     <t>posicion</t>
@@ -1700,7 +1716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125">
       <selection activeCell="B3" activeCellId="0" sqref="B3"/>
@@ -2444,12 +2460,152 @@
       <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="s"/>
       <c r="D19" t="s">
         <v>59</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s"/>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2478,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2530,145 +2686,145 @@
   <sheetData>
     <row customHeight="1" ht="51" r="1" spans="1:47">
       <c r="A1" s="55" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E1" s="56" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G1" s="56" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H1" s="56" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L1" s="56" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M1" s="57" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="58" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P1" s="58" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q1" s="58" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="R1" s="58" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S1" s="58" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="T1" s="58" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="U1" s="59" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="V1" s="59" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="W1" s="59" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="X1" s="59" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Y1" s="59" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Z1" s="60" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AA1" s="60" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AB1" s="60" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AC1" s="60" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AD1" s="60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AE1" s="60" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF1" s="60" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG1" s="61" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AH1" s="61" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AI1" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ1" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="AK1" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL1" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="AM1" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="AJ1" s="61" t="s">
+      <c r="AN1" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="AK1" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL1" s="61" t="s">
+      <c r="AO1" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="AM1" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="AN1" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="AO1" s="62" t="s">
-        <v>269</v>
-      </c>
       <c r="AP1" s="62" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AQ1" s="62" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AR1" s="62" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AS1" s="63" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AT1" s="63" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AU1" s="63" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:47">
@@ -2715,10 +2871,10 @@
       <c r="AI2" s="65" t="n"/>
       <c r="AJ2" s="65" t="n"/>
       <c r="AK2" s="26" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AL2" s="26" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AM2" s="65" t="n"/>
       <c r="AN2" s="65" t="n"/>
@@ -2772,10 +2928,10 @@
       <c r="AI3" s="65" t="n"/>
       <c r="AJ3" s="65" t="n"/>
       <c r="AK3" s="26" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL3" s="26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM3" s="65" t="n"/>
       <c r="AN3" s="65" t="n"/>
@@ -2831,10 +2987,10 @@
       <c r="AI4" s="65" t="n"/>
       <c r="AJ4" s="65" t="n"/>
       <c r="AK4" s="26" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL4" s="26" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AM4" s="65" t="n"/>
       <c r="AN4" s="65" t="n"/>
@@ -3944,21 +4100,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="27" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -3966,10 +4122,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -3977,10 +4133,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -3988,10 +4144,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -4023,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4033,12 +4189,12 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="37" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="37" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -4070,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4084,29 +4240,29 @@
         <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="37" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B3" s="26" t="n">
         <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="37" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B4" s="26" t="n">
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4179,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4236,10 +4392,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4290,10 +4446,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C1" s="81" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4306,7 +4462,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="37" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C3" s="26" t="n">
         <v>54781769398</v>
@@ -4314,7 +4470,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="37" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C4" s="26" t="n">
         <v>54781769406</v>
@@ -4346,7 +4502,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -4356,7 +4512,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -4366,7 +4522,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -4376,7 +4532,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -4410,12 +4566,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -4450,42 +4606,42 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E2" t="n">
         <v>11</v>
@@ -4494,21 +4650,21 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
@@ -4517,21 +4673,21 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
@@ -4540,21 +4696,21 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" t="n">
         <v>11</v>
@@ -4563,21 +4719,21 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" t="n">
         <v>11</v>
@@ -4586,21 +4742,21 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
         <v>11</v>
@@ -4609,21 +4765,21 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E8" t="n">
         <v>11</v>
@@ -4632,21 +4788,21 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
@@ -4655,21 +4811,21 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E10" t="n">
         <v>11</v>
@@ -4678,21 +4834,21 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E11" t="n">
         <v>11</v>
@@ -4701,21 +4857,21 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" t="n">
         <v>11</v>
@@ -4724,21 +4880,21 @@
         <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13" t="n">
         <v>11</v>
@@ -4747,21 +4903,21 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" t="n">
         <v>11</v>
@@ -4770,21 +4926,21 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E15" t="n">
         <v>11</v>
@@ -4793,21 +4949,21 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
@@ -4816,21 +4972,21 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
@@ -4839,21 +4995,21 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="22" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E18" t="n">
         <v>11</v>
@@ -4862,21 +5018,21 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" t="n">
         <v>11</v>
@@ -4891,16 +5047,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E20" t="n">
         <v>11</v>
@@ -4915,16 +5071,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E21" t="n">
         <v>11</v>
@@ -4939,16 +5095,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22" t="n">
         <v>11</v>
@@ -4963,16 +5119,16 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="22" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E23" t="n">
         <v>11</v>
@@ -4987,16 +5143,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E24" t="n">
         <v>11</v>
@@ -5011,16 +5167,16 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
@@ -5035,16 +5191,16 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E26" t="n">
         <v>11</v>
@@ -5059,16 +5215,16 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
@@ -5083,16 +5239,16 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E28" t="n">
         <v>11</v>
@@ -5107,16 +5263,16 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E29" t="n">
         <v>11</v>
@@ -5131,16 +5287,16 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E30" t="n">
         <v>12</v>
@@ -5155,16 +5311,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E31" t="n">
         <v>12</v>
@@ -5179,16 +5335,16 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E32" t="n">
         <v>12</v>
@@ -5203,16 +5359,16 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E33" t="n">
         <v>12</v>
@@ -5227,16 +5383,16 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E34" t="n">
         <v>12</v>
@@ -5251,16 +5407,16 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E35" t="n">
         <v>12</v>
@@ -5275,16 +5431,16 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E36" t="n">
         <v>12</v>
@@ -5299,16 +5455,16 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E37" t="n">
         <v>12</v>
@@ -5323,16 +5479,16 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E38" t="n">
         <v>12</v>
@@ -5347,16 +5503,16 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E39" t="n">
         <v>12</v>
@@ -5371,16 +5527,16 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E40" t="n">
         <v>12</v>
@@ -5395,16 +5551,16 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E41" t="n">
         <v>12</v>
@@ -5419,16 +5575,16 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E42" t="n">
         <v>12</v>
@@ -5443,16 +5599,16 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E43" t="n">
         <v>12</v>
@@ -5467,16 +5623,16 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E44" t="n">
         <v>12</v>
@@ -5491,16 +5647,16 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E45" t="n">
         <v>13</v>
@@ -5515,16 +5671,16 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E46" t="n">
         <v>13</v>
@@ -5539,16 +5695,16 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E47" t="n">
         <v>13</v>
@@ -5563,16 +5719,16 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E48" t="n">
         <v>13</v>
@@ -5587,16 +5743,16 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E49" t="n">
         <v>13</v>
@@ -5611,16 +5767,16 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E50" t="n">
         <v>13</v>
@@ -5635,16 +5791,16 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E51" t="n">
         <v>13</v>
@@ -5659,16 +5815,16 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E52" t="n">
         <v>13</v>
@@ -5683,16 +5839,16 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -5707,16 +5863,16 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E54" t="n">
         <v>13</v>
@@ -5731,16 +5887,16 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E55" t="n">
         <v>13</v>
@@ -5755,16 +5911,16 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E56" t="n">
         <v>13</v>
@@ -5779,16 +5935,16 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D57" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E57" t="n">
         <v>13</v>
@@ -5803,16 +5959,16 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E58" t="n">
         <v>13</v>
@@ -5827,16 +5983,16 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E59" t="n">
         <v>13</v>
@@ -5851,16 +6007,16 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E60" t="n">
         <v>14</v>
@@ -5875,16 +6031,16 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E61" t="n">
         <v>14</v>
@@ -5899,16 +6055,16 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E62" t="n">
         <v>14</v>
@@ -5923,16 +6079,16 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E63" t="n">
         <v>14</v>
@@ -5947,16 +6103,16 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E64" t="n">
         <v>14</v>
@@ -5971,16 +6127,16 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E65" t="n">
         <v>14</v>
@@ -5995,16 +6151,16 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E66" t="n">
         <v>14</v>
@@ -6019,16 +6175,16 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E67" t="n">
         <v>14</v>
@@ -6043,16 +6199,16 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E68" t="n">
         <v>14</v>
@@ -6067,16 +6223,16 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E69" t="n">
         <v>14</v>
@@ -6091,16 +6247,16 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="22" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E70" t="n">
         <v>14</v>
@@ -6115,16 +6271,16 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D71" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E71" t="n">
         <v>14</v>
@@ -6139,16 +6295,16 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E72" t="n">
         <v>14</v>
@@ -6163,16 +6319,16 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E73" t="n">
         <v>14</v>
@@ -6187,16 +6343,16 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E74" t="n">
         <v>14</v>
@@ -6211,16 +6367,16 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D75" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E75" t="n">
         <v>14</v>
@@ -6229,21 +6385,21 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E76" t="n">
         <v>11</v>
@@ -6252,21 +6408,21 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
@@ -6276,21 +6432,21 @@
         <v/>
       </c>
       <c r="G77" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" t="s">
         <v>155</v>
-      </c>
-      <c r="B78" t="s">
-        <v>151</v>
-      </c>
-      <c r="C78" t="s">
-        <v>152</v>
-      </c>
-      <c r="D78" t="s">
-        <v>153</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -6300,21 +6456,21 @@
         <v/>
       </c>
       <c r="G78" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D79" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E79" t="n">
         <v>1</v>
@@ -6324,21 +6480,21 @@
         <v/>
       </c>
       <c r="G79" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
@@ -6348,21 +6504,21 @@
         <v/>
       </c>
       <c r="G80" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="26" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C81" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D81" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
@@ -6372,21 +6528,21 @@
         <v/>
       </c>
       <c r="G81" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C82" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D82" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
@@ -6396,21 +6552,21 @@
         <v/>
       </c>
       <c r="G82" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C83" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
@@ -6420,21 +6576,21 @@
         <v/>
       </c>
       <c r="G83" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D84" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
@@ -6444,21 +6600,21 @@
         <v/>
       </c>
       <c r="G84" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B85" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C85" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D85" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
@@ -6468,21 +6624,21 @@
         <v/>
       </c>
       <c r="G85" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="26" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B86" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C86" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D86" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E86" t="n">
         <v>2</v>
@@ -6492,21 +6648,21 @@
         <v/>
       </c>
       <c r="G86" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C87" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D87" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E87" t="n">
         <v>2</v>
@@ -6516,21 +6672,21 @@
         <v/>
       </c>
       <c r="G87" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B88" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C88" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D88" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
@@ -6540,21 +6696,21 @@
         <v/>
       </c>
       <c r="G88" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B89" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C89" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D89" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -6564,7 +6720,7 @@
         <v/>
       </c>
       <c r="G89" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6594,15 +6750,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -6613,7 +6769,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -6624,7 +6780,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -6635,7 +6791,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -6670,15 +6826,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="82" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B2" t="n">
         <v>1450</v>
@@ -6713,12 +6869,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="83" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B2" t="n">
         <v>10</v>
@@ -6750,12 +6906,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="83" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -6792,29 +6948,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N1" s="28" t="n"/>
       <c r="O1" s="28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -7289,10 +7445,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -7306,23 +7462,23 @@
         <v>150</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N2" s="28" t="n"/>
       <c r="O2" s="28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -7713,15 +7869,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B2" t="n">
         <v>4200</v>
@@ -7732,7 +7888,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B3" t="n">
         <v>900</v>
@@ -7743,7 +7899,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B4" t="n">
         <v>900</v>
@@ -7782,26 +7938,26 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="39" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B1" s="39" t="n"/>
       <c r="C1" s="40" t="n"/>
       <c r="D1" s="39" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B2" s="41" t="n">
         <v>4200</v>
@@ -7814,7 +7970,7 @@
         <v/>
       </c>
       <c r="E2" s="38" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" t="n">
         <v>20</v>
@@ -7826,7 +7982,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B3" s="41" t="n">
         <v>900</v>
@@ -7839,7 +7995,7 @@
         <v/>
       </c>
       <c r="E3" s="38" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F3" t="n">
         <v>20</v>
@@ -7851,7 +8007,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B4" s="41" t="n">
         <v>900</v>
@@ -7864,7 +8020,7 @@
         <v/>
       </c>
       <c r="E4" s="38" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F4" t="n">
         <v>20</v>
@@ -7876,14 +8032,14 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C5" s="38" t="n"/>
       <c r="D5" s="38" t="n">
         <v>2300</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F5" t="n">
         <v>20</v>
@@ -7895,14 +8051,14 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C6" s="38" t="n"/>
       <c r="D6" s="38" t="n">
         <v>132000</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -7967,26 +8123,26 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B3" s="45" t="n">
         <v>1200</v>
@@ -7997,7 +8153,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B4" s="45" t="n">
         <v>1200</v>
@@ -8008,7 +8164,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B5" s="45" t="n">
         <v>1200</v>
@@ -8019,7 +8175,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8048,7 +8204,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B23" s="26" t="n">
         <v>500</v>
@@ -8056,7 +8212,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B24" s="26" t="n">
         <v>500</v>
@@ -8064,7 +8220,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B25" s="26" t="n">
         <v>500</v>
@@ -8072,19 +8228,19 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="46" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8137,7 +8293,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B32" s="26" t="n">
         <v>100</v>
@@ -8153,7 +8309,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B33" s="26" t="n">
         <v>100</v>
@@ -8169,7 +8325,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B34" s="26" t="n">
         <v>400</v>
@@ -8213,10 +8369,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8227,7 +8383,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D2" s="47" t="n">
         <v>7503041710073</v>
@@ -8241,7 +8397,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>7503041710097</v>
@@ -8292,135 +8448,135 @@
   <sheetData>
     <row customFormat="1" r="1" s="50" spans="1:23">
       <c r="A1" s="50" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G1" s="50" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H1" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J1" s="50" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L1" s="50" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M1" s="50" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N1" s="50" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O1" s="50" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P1" s="50" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q1" s="50" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="R1" s="50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="S1" s="50" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="T1" s="50" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="U1" s="50" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="V1" s="50" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="W1" s="50" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K2" s="48" t="n">
         <v>1800</v>
       </c>
       <c r="L2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M2" t="n">
         <v>1149</v>
       </c>
       <c r="N2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="R2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="S2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="U2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="V2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:23">

--- a/files/WMSOK.xlsx
+++ b/files/WMSOK.xlsx
@@ -1315,13 +1315,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" quotePrefix="0" pivotButton="0"/>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" quotePrefix="0" pivotButton="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
@@ -2883,10 +2883,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2929,11 +2929,11 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" style="2" width="15"/>
-    <col hidden="1" min="2" max="5" style="1" width="0"/>
+    <col customWidth="1" hidden="1" min="2" max="5" style="1" width="0"/>
     <col customWidth="1" min="6" max="6" style="46" width="10.796875"/>
-    <col hidden="1" min="7" max="13" style="1" width="0"/>
+    <col customWidth="1" hidden="1" min="7" max="13" style="1" width="0"/>
     <col customWidth="1" min="14" max="14" style="46" width="10.796875"/>
-    <col hidden="1" min="15" max="36" style="1" width="0"/>
+    <col customWidth="1" hidden="1" min="15" max="36" style="1" width="0"/>
     <col customWidth="1" min="37" max="37" style="46" width="28"/>
   </cols>
   <sheetData>
@@ -2953,7 +2953,7 @@
       <c r="E1" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>169</v>
       </c>
       <c r="G1" s="54" t="s">
@@ -2977,7 +2977,7 @@
       <c r="M1" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="56" t="s">
@@ -3046,7 +3046,7 @@
       <c r="AJ1" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AK1" s="29" t="s">
         <v>201</v>
       </c>
       <c r="AL1" s="59" t="s">
@@ -4352,13 +4352,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4428,10 +4428,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4475,13 +4475,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4584,13 +4584,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4641,13 +4641,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4815,10 +4815,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6999,13 +6999,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7075,10 +7075,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>169</v>
       </c>
       <c r="C1" t="s">
@@ -7118,10 +7118,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7155,10 +7155,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>169</v>
       </c>
     </row>
@@ -7191,79 +7191,953 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="18.59765625"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="28" width="18.59765625"/>
+    <col customWidth="1" min="2" max="3" style="28" width="11.00390625"/>
     <col customWidth="1" hidden="1" min="7" max="7" style="1" width="45.19921875"/>
     <col customWidth="1" min="8" max="8" style="1" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2"/>
-      <c r="H2"/>
-    </row>
-    <row r="3">
-      <c r="A3"/>
-      <c r="H3"/>
-    </row>
-    <row r="4">
-      <c r="A4"/>
-      <c r="H4"/>
+    <row r="2" ht="16.5" customHeight="1">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" ht="16.5" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+    </row>
+    <row r="4" ht="16.5" customHeight="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7">
-      <c r="A7"/>
-    </row>
-    <row r="8">
-      <c r="A8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-    </row>
-    <row r="9">
-      <c r="A9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-    </row>
-    <row r="10">
-      <c r="A10"/>
-      <c r="G10"/>
-      <c r="H10"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+    </row>
+    <row r="7" ht="16.5" customHeight="1">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+    </row>
+    <row r="8" ht="16.5" customHeight="1">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="11">
-      <c r="A11"/>
-      <c r="G11"/>
-      <c r="H11"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
     </row>
     <row r="13">
-      <c r="G13"/>
-      <c r="H13"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15">
-      <c r="G15"/>
-      <c r="H15"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17">
-      <c r="G17"/>
-      <c r="H17"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1"/>
-    <row r="65" ht="16.5" customHeight="1"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="28"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="28"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="28"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="28"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="28"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="28"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="28"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="28"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="28"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="28"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="28"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="28"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="28"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="28"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="28"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="28"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="28"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="28"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="28"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="28"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="28"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="28"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="28"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="28"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="28"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="28"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="28"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="28"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="28"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="28"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="28"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="28"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="28"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="28"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="28"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="28"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="28"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="28"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="28"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="28"/>
+      <c r="B136" s="28"/>
+      <c r="C136" s="28"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="28"/>
+      <c r="B137" s="28"/>
+      <c r="C137" s="28"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="28"/>
+      <c r="B138" s="28"/>
+      <c r="C138" s="28"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="28"/>
+      <c r="B139" s="28"/>
+      <c r="C139" s="28"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="28"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="28"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="28"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="28"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="28"/>
+      <c r="B142" s="28"/>
+      <c r="C142" s="28"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="28"/>
+      <c r="B143" s="28"/>
+      <c r="C143" s="28"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="28"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="28"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="28"/>
+      <c r="B145" s="28"/>
+      <c r="C145" s="28"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="28"/>
+      <c r="B146" s="28"/>
+      <c r="C146" s="28"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="28"/>
+      <c r="B147" s="28"/>
+      <c r="C147" s="28"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="28"/>
+      <c r="B148" s="28"/>
+      <c r="C148" s="28"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="28"/>
+      <c r="B149" s="28"/>
+      <c r="C149" s="28"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="28"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="28"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="28"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="28"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="28"/>
+      <c r="B152" s="28"/>
+      <c r="C152" s="28"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="28"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="28"/>
+      <c r="B154" s="28"/>
+      <c r="C154" s="28"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="28"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="28"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="28"/>
+      <c r="B157" s="28"/>
+      <c r="C157" s="28"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="28"/>
+      <c r="B158" s="28"/>
+      <c r="C158" s="28"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="28"/>
+      <c r="B159" s="28"/>
+      <c r="C159" s="28"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="28"/>
+      <c r="B160" s="28"/>
+      <c r="C160" s="28"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="28"/>
+      <c r="B161" s="28"/>
+      <c r="C161" s="28"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="28"/>
+      <c r="B162" s="28"/>
+      <c r="C162" s="28"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="28"/>
+      <c r="B163" s="28"/>
+      <c r="C163" s="28"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="28"/>
+      <c r="B164" s="28"/>
+      <c r="C164" s="28"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="28"/>
+      <c r="B165" s="28"/>
+      <c r="C165" s="28"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="28"/>
+      <c r="B166" s="28"/>
+      <c r="C166" s="28"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="28"/>
+      <c r="B167" s="28"/>
+      <c r="C167" s="28"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="28"/>
+      <c r="B168" s="28"/>
+      <c r="C168" s="28"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="28"/>
+      <c r="B169" s="28"/>
+      <c r="C169" s="28"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="28"/>
+      <c r="B170" s="28"/>
+      <c r="C170" s="28"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="28"/>
+      <c r="B171" s="28"/>
+      <c r="C171" s="28"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="28"/>
+      <c r="B172" s="28"/>
+      <c r="C172" s="28"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="28"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="28"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="28"/>
+      <c r="B174" s="28"/>
+      <c r="C174" s="28"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="28"/>
+      <c r="B175" s="28"/>
+      <c r="C175" s="28"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="28"/>
+      <c r="B176" s="28"/>
+      <c r="C176" s="28"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="28"/>
+      <c r="B177" s="28"/>
+      <c r="C177" s="28"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="28"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="28"/>
+      <c r="B179" s="28"/>
+      <c r="C179" s="28"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="28"/>
+      <c r="B180" s="28"/>
+      <c r="C180" s="28"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="28"/>
+      <c r="B181" s="28"/>
+      <c r="C181" s="28"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="28"/>
+      <c r="B182" s="28"/>
+      <c r="C182" s="28"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="28"/>
+      <c r="B183" s="28"/>
+      <c r="C183" s="28"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="28"/>
+      <c r="B184" s="28"/>
+      <c r="C184" s="28"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="28"/>
+      <c r="B185" s="28"/>
+      <c r="C185" s="28"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="28"/>
+      <c r="B186" s="28"/>
+      <c r="C186" s="28"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="28"/>
+      <c r="B187" s="28"/>
+      <c r="C187" s="28"/>
+    </row>
     <row r="193" ht="16.5" customHeight="1"/>
     <row r="449" ht="16.5" customHeight="1"/>
     <row r="961" ht="16.5" customHeight="1"/>
@@ -7296,13 +8170,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7720,13 +8594,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8220,13 +9094,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>201</v>
       </c>
     </row>
